--- a/TC/test2.xlsx
+++ b/TC/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650"/>
+    <workbookView xWindow="240" yWindow="525" windowWidth="14805" windowHeight="7590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
     <t>port</t>
   </si>
   <si>
-    <t>CHROME</t>
+    <t>SAFARI</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TC/test2.xlsx
+++ b/TC/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="525" windowWidth="14805" windowHeight="7590" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="525" windowWidth="14805" windowHeight="7590" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -142,9 +142,6 @@
     <t>中文邮箱第一品牌</t>
   </si>
   <si>
-    <t>remote browser</t>
-  </si>
-  <si>
     <t>IP</t>
   </si>
   <si>
@@ -154,7 +151,46 @@
     <t>port</t>
   </si>
   <si>
-    <t>SAFARI</t>
+    <t>local browser</t>
+  </si>
+  <si>
+    <t>CHROME</t>
+  </si>
+  <si>
+    <t>DB server</t>
+  </si>
+  <si>
+    <t>testregistrydb.cx63o2hqi2wj.us-east-1.rds.amazonaws.com</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>TestRegistry</t>
+  </si>
+  <si>
+    <t>DB user</t>
+  </si>
+  <si>
+    <t>SQLQAUser</t>
+  </si>
+  <si>
+    <t>DB pwd</t>
+  </si>
+  <si>
+    <t>abc123!</t>
+  </si>
+  <si>
+    <t>Windows authentication</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>verify DB</t>
+  </si>
+  <si>
+    <t>验证数据库数据</t>
   </si>
 </sst>
 </file>
@@ -578,36 +614,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
       </c>
       <c r="F1">
         <v>4444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -625,10 +702,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,6 +768,14 @@
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/TC/test2.xlsx
+++ b/TC/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="525" windowWidth="14805" windowHeight="7590" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="585" windowWidth="14805" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Action" sheetId="3" r:id="rId3"/>
     <sheet name="location" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -139,9 +139,6 @@
     <t>disable</t>
   </si>
   <si>
-    <t>中文邮箱第一品牌</t>
-  </si>
-  <si>
     <t>IP</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>验证数据库数据</t>
+  </si>
+  <si>
+    <t>中文s邮箱第一品牌</t>
   </si>
 </sst>
 </file>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +580,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -629,19 +629,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
       </c>
       <c r="F1">
         <v>4444</v>
@@ -649,42 +649,42 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,10 +772,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/TC/test2.xlsx
+++ b/TC/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="585" windowWidth="14805" windowHeight="7530"/>
+    <workbookView xWindow="240" yWindow="645" windowWidth="14805" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
@@ -148,28 +148,28 @@
     <t>port</t>
   </si>
   <si>
+    <t>CHROME</t>
+  </si>
+  <si>
     <t>local browser</t>
   </si>
   <si>
-    <t>CHROME</t>
+    <t>testregistrydb.cx63o2hqi2wj.us-east-1.rds.amazonaws.com</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>TestRegistry</t>
+  </si>
+  <si>
+    <t>SQLQAUser</t>
   </si>
   <si>
     <t>DB server</t>
   </si>
   <si>
-    <t>testregistrydb.cx63o2hqi2wj.us-east-1.rds.amazonaws.com</t>
-  </si>
-  <si>
-    <t>database</t>
-  </si>
-  <si>
-    <t>TestRegistry</t>
-  </si>
-  <si>
     <t>DB user</t>
-  </si>
-  <si>
-    <t>SQLQAUser</t>
   </si>
   <si>
     <t>DB pwd</t>
@@ -533,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,6 +583,17 @@
         <v>57</v>
       </c>
     </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
@@ -593,18 +604,30 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Action!$A$1:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>location!$A$1:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>D1 D3:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Action!$A$1:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1 C3:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]location!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Action!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -617,7 +640,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,10 +652,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>40</v>
@@ -648,42 +671,42 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -704,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,10 +794,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>56</v>
       </c>
     </row>
